--- a/Data/Input/input_Unicorn_names.xlsx
+++ b/Data/Input/input_Unicorn_names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25525"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushik.ks\Desktop\Assignments\RE Framework\unicorn name generator\Data\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rencita.Monteiro\Documents\UiPath\Assignment_10\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682EBA08-55F9-4FEB-9001-3CE1871DB0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0FE1E0D-80E5-46D5-B65D-19D85D116364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -101,13 +101,16 @@
   </si>
   <si>
     <t>May</t>
+  </si>
+  <si>
+    <t>UnicornNames</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,27 +421,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -446,7 +452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -454,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -462,7 +468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -470,7 +476,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -478,7 +484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -486,7 +492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -494,7 +500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -502,7 +508,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -510,7 +516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -820,9 +826,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00B96F42-ED14-44C5-828E-53A0A5A3723E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00B96F42-ED14-44C5-828E-53A0A5A3723E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91504662-B654-42E4-82F6-3F16CEC394E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91504662-B654-42E4-82F6-3F16CEC394E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b4edf56a-5a91-48ff-919c-183254b0e511"/>
+    <ds:schemaRef ds:uri="6a1fcef9-8c1c-4c75-859d-d52abd477b99"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>